--- a/lista_verificacao_individual_renomear_alunos.xlsx
+++ b/lista_verificacao_individual_renomear_alunos.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SAEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51893046800.EDUC501\Desktop\SAEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A0C7F-D240-41EA-960D-372C9D7D6643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A97F2F-7B2C-4888-ADFE-6D90D13935B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
   <si>
     <t>LISTA DE VERIFICAÇÃO – Técnico em Desenvolvimento de Sistemas</t>
   </si>
@@ -498,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve">Repositório do GitHub: </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -693,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,9 +727,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,10 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -761,30 +753,57 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -802,33 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,55 +1238,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1305,28 +1291,20 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1338,7 +1316,7 @@
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1356,21 +1334,21 @@
       <c r="I8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1379,20 +1357,22 @@
       <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1401,7 +1381,9 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
       <c r="J10" s="11" t="s">
@@ -1409,12 +1391,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1423,47 +1405,53 @@
       <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="37" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1472,37 +1460,41 @@
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1511,85 +1503,97 @@
       <c r="F16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
@@ -1597,115 +1601,129 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="7" t="s">
         <v>71</v>
       </c>
@@ -1717,78 +1735,88 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
@@ -1796,16 +1824,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="24" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1815,17 +1843,19 @@
         <v>88</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="41"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="3" t="s">
         <v>89</v>
       </c>
@@ -1833,17 +1863,19 @@
         <v>90</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1852,20 +1884,22 @@
       <c r="F37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1874,52 +1908,58 @@
       <c r="F38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="43"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="41"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="43"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>106</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -1928,20 +1968,22 @@
       <c r="F41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="43"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>111</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1950,78 +1992,82 @@
       <c r="F42" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="44"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="13"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="13"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="13"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="13"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="13"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="13"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="13"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="13"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="13"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="13"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="13"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="13"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="13"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="13"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="13"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="13"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="13"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="13"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="13"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="13"/>
+      <c r="D62" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B37"/>
@@ -2032,15 +2078,14 @@
     <mergeCell ref="B16:B34"/>
     <mergeCell ref="A9:A34"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>